--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1005281.81328409</v>
+        <v>1001603.441374522</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32993375.69348357</v>
+        <v>32922482.76379273</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5838309.41249199</v>
+        <v>5742211.598306749</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4408564.492128577</v>
+        <v>4436732.468479881</v>
       </c>
     </row>
     <row r="11">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>187.5335132761493</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>348.7229982277516</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1533,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>117.9348452742442</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>75.93725220032039</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>401.8043530662507</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,10 +1618,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>149.6157531058518</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>119.5850716771956</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.68945634482935</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -1824,7 +1824,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>174.4580933743232</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>158.9612974735622</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>89.30668535812342</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>121.1231442667698</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>156.1894272932648</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>10.40843091804907</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>146.8043639280745</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>199.6704431206649</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>404.3209038460201</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>27.30232293030363</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>127.8204772013947</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>279.131386894768</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>398.5410853390139</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>42.35038057783511</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>208.2872703185859</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>31.59150975821635</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>93.16613052254546</v>
+        <v>149.6157531058518</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>63.62546569681869</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811444</v>
@@ -3477,7 +3477,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>193.7816871665334</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>116.6395830120775</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>14.57650044656289</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>98.68740471784012</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,7 +3678,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811444</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>146.3917356253861</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>157.5696372002531</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>331.5396322227203</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.96684102370025</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.4622336584163</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>169.9544088295887</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>301.9818465976528</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,19 +4137,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>51.77925078256411</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
@@ -4197,13 +4197,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>54.96134906155282</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.20705326085427</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>44.20705326085427</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>44.20705326085427</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>44.20705326085427</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>83.45630615600527</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>83.45630615600527</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.3581591730573</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>149.3429022612615</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.097182601319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>29.36887340425979</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>29.36887340425979</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>29.36887340425979</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>70.27072642131186</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>111.1725794383639</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>111.1725794383639</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>111.1725794383639</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>152.074432455416</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.074432455416</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>128.5021791757032</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>128.5021791757032</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.76985286506957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.20705326085427</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>85.10890627790634</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>85.10890627790634</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>124.3581591730573</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>124.3581591730573</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>124.3581591730573</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901094</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>143.8421908954813</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>102.1098645848476</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>60.37753827421391</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>60.37753827421391</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>60.37753827421391</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>60.37753827421391</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.64521196358022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K8" t="n">
         <v>44.20705326085427</v>
       </c>
       <c r="L8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N8" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O8" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P8" t="n">
         <v>124.3581591730573</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C9" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E9" t="n">
         <v>3.305200243802188</v>
@@ -4883,25 +4883,25 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J9" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K9" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L9" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M9" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N9" t="n">
-        <v>111.1725794383639</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O9" t="n">
-        <v>111.1725794383639</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>81.79535956884203</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443588</v>
+        <v>60.37753827421391</v>
       </c>
       <c r="C10" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="D10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4968,16 +4968,16 @@
         <v>3.305200243802188</v>
       </c>
       <c r="L10" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M10" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N10" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4992,22 +4992,22 @@
         <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U10" t="n">
         <v>102.1098645848476</v>
       </c>
       <c r="V10" t="n">
-        <v>60.37753827421391</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X10" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.03752655443588</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>316.9281030050443</v>
+        <v>1273.504261946392</v>
       </c>
       <c r="C11" t="n">
-        <v>316.9281030050443</v>
+        <v>835.361789129815</v>
       </c>
       <c r="D11" t="n">
-        <v>316.9281030050443</v>
+        <v>399.4520043042594</v>
       </c>
       <c r="E11" t="n">
-        <v>316.9281030050443</v>
+        <v>399.4520043042594</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>399.4520043042594</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.25688596925</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.639935903077</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>1333.78448131411</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X11" t="n">
-        <v>914.6420178934205</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.3558941930739</v>
+        <v>1699.803832431299</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
         <v>803.387703298788</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.0748969752678</v>
+        <v>915.5847871853875</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5131854584928</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5131854584928</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E13" t="n">
         <v>407.3870791208724</v>
@@ -5196,55 +5196,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>477.6707703898316</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L13" t="n">
-        <v>601.5415720081295</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M13" t="n">
-        <v>732.1459643466588</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N13" t="n">
-        <v>1301.903679308193</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>2139.196743800132</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1852.241235670562</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1580.214831256854</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1334.823076590267</v>
       </c>
       <c r="Y13" t="n">
-        <v>890.893515694255</v>
+        <v>1107.403405904375</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1722.256755431941</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C14" t="n">
-        <v>1316.393772536738</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D14" t="n">
-        <v>880.4839877111824</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
         <v>47.20655154895472</v>
@@ -5278,10 +5278,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867021</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W14" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X14" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="Y14" t="n">
-        <v>2148.556325916848</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.0748969752678</v>
+        <v>758.6107344189456</v>
       </c>
       <c r="C16" t="n">
-        <v>699.0748969752678</v>
+        <v>586.0490229021706</v>
       </c>
       <c r="D16" t="n">
-        <v>533.1969041767906</v>
+        <v>420.1710301036933</v>
       </c>
       <c r="E16" t="n">
-        <v>363.4389004275278</v>
+        <v>250.4130263544305</v>
       </c>
       <c r="F16" t="n">
-        <v>242.6458987333908</v>
+        <v>250.4130263544305</v>
       </c>
       <c r="G16" t="n">
         <v>242.6458987333908</v>
@@ -5439,19 +5439,19 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>733.422710770687</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1317.603786189002</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O16" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675981</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1423.240778490412</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1177.849023823825</v>
       </c>
       <c r="Y16" t="n">
-        <v>890.893515694255</v>
+        <v>950.4293531379328</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>657.2015927283597</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="C17" t="n">
-        <v>480.9812963906596</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D17" t="n">
-        <v>480.9812963906596</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895472</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5545,22 +5545,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916848</v>
+        <v>2199.760610302724</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438362</v>
+        <v>1940.689918824238</v>
       </c>
       <c r="V17" t="n">
-        <v>1889.485634438362</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="W17" t="n">
-        <v>1484.630179849396</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="X17" t="n">
-        <v>1065.487716428706</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="Y17" t="n">
-        <v>657.2015927283597</v>
+        <v>1578.072968758064</v>
       </c>
     </row>
     <row r="18">
@@ -5591,10 +5591,10 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
         <v>335.7952991210681</v>
@@ -5603,7 +5603,7 @@
         <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.6552262893761</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="C19" t="n">
-        <v>471.6552262893761</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D19" t="n">
-        <v>471.6552262893761</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E19" t="n">
-        <v>301.8972225401134</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F19" t="n">
-        <v>301.8972225401134</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>828.1746199579899</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1312.340365418169</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C20" t="n">
-        <v>874.1978926015922</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D20" t="n">
-        <v>874.1978926015922</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E20" t="n">
-        <v>874.1978926015922</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895472</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.25688596925</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V20" t="n">
-        <v>1738.639935903077</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W20" t="n">
-        <v>1738.639935903077</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="X20" t="n">
-        <v>1738.639935903077</v>
+        <v>1775.425809266787</v>
       </c>
       <c r="Y20" t="n">
-        <v>1738.639935903077</v>
+        <v>1775.425809266787</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345754</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810424</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>787.3860690861721</v>
+        <v>515.1866087173789</v>
       </c>
       <c r="C22" t="n">
-        <v>787.3860690861721</v>
+        <v>515.1866087173789</v>
       </c>
       <c r="D22" t="n">
-        <v>621.5080762876948</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E22" t="n">
-        <v>451.7500725384321</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F22" t="n">
-        <v>275.0430185001883</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>1019.75145377609</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
         <v>1657.620488527956</v>
@@ -5949,13 +5949,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1206.624358491051</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.624358491051</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>979.2046878051592</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1638.439481920652</v>
+        <v>2204.484047253829</v>
       </c>
       <c r="C23" t="n">
-        <v>1200.297009104076</v>
+        <v>1766.341574437252</v>
       </c>
       <c r="D23" t="n">
-        <v>764.3872242785201</v>
+        <v>1330.431789611697</v>
       </c>
       <c r="E23" t="n">
-        <v>764.3872242785201</v>
+        <v>896.6570447699918</v>
       </c>
       <c r="F23" t="n">
-        <v>336.5197946877278</v>
+        <v>468.7896151791995</v>
       </c>
       <c r="G23" t="n">
-        <v>336.5197946877278</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="H23" t="n">
-        <v>66.7982432316382</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="I23" t="n">
-        <v>137.9981934828188</v>
+        <v>140.4868741098573</v>
       </c>
       <c r="J23" t="n">
-        <v>295.644968726264</v>
+        <v>298.1336493533025</v>
       </c>
       <c r="K23" t="n">
-        <v>531.916619105485</v>
+        <v>1155.559332104427</v>
       </c>
       <c r="L23" t="n">
-        <v>1289.82242840583</v>
+        <v>1448.675206968327</v>
       </c>
       <c r="M23" t="n">
-        <v>1615.970316574617</v>
+        <v>1774.823095137114</v>
       </c>
       <c r="N23" t="n">
-        <v>2442.59857656614</v>
+        <v>2106.248397113592</v>
       </c>
       <c r="O23" t="n">
-        <v>2755.554091107433</v>
+        <v>2419.203911654884</v>
       </c>
       <c r="P23" t="n">
-        <v>3022.654382286702</v>
+        <v>3147.088413638627</v>
       </c>
       <c r="Q23" t="n">
-        <v>3223.235577297769</v>
+        <v>3347.669608649695</v>
       </c>
       <c r="R23" t="n">
-        <v>3339.91216158191</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="S23" t="n">
-        <v>3299.445791796707</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="T23" t="n">
-        <v>3087.674540265819</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="U23" t="n">
-        <v>2828.603848787333</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="V23" t="n">
-        <v>2465.98689872116</v>
+        <v>3436.768088963831</v>
       </c>
       <c r="W23" t="n">
-        <v>2465.98689872116</v>
+        <v>3031.912634374865</v>
       </c>
       <c r="X23" t="n">
-        <v>2046.844435300471</v>
+        <v>2612.770170954176</v>
       </c>
       <c r="Y23" t="n">
-        <v>2046.844435300471</v>
+        <v>2204.484047253829</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>562.1629967490742</v>
+        <v>564.6516773761127</v>
       </c>
       <c r="C24" t="n">
-        <v>455.7065355857165</v>
+        <v>458.195216212755</v>
       </c>
       <c r="D24" t="n">
-        <v>360.6162467322697</v>
+        <v>363.1049273593083</v>
       </c>
       <c r="E24" t="n">
-        <v>266.4958320592234</v>
+        <v>268.984512686262</v>
       </c>
       <c r="F24" t="n">
-        <v>183.111993675385</v>
+        <v>185.6006743024236</v>
       </c>
       <c r="G24" t="n">
-        <v>98.74089326504196</v>
+        <v>101.2295738920805</v>
       </c>
       <c r="H24" t="n">
-        <v>66.7982432316382</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="I24" t="n">
-        <v>101.0149794031143</v>
+        <v>103.5036600301532</v>
       </c>
       <c r="J24" t="n">
-        <v>194.9083187495815</v>
+        <v>197.3969993766203</v>
       </c>
       <c r="K24" t="n">
-        <v>355.3869908037518</v>
+        <v>357.8756714307904</v>
       </c>
       <c r="L24" t="n">
-        <v>571.1703696787741</v>
+        <v>573.6590503058127</v>
       </c>
       <c r="M24" t="n">
-        <v>822.9793949814716</v>
+        <v>825.4680756085102</v>
       </c>
       <c r="N24" t="n">
-        <v>1081.453055902792</v>
+        <v>1083.94173652983</v>
       </c>
       <c r="O24" t="n">
-        <v>1317.905958717322</v>
+        <v>1320.39463934436</v>
       </c>
       <c r="P24" t="n">
-        <v>1507.680259282128</v>
+        <v>1510.168939909167</v>
       </c>
       <c r="Q24" t="n">
-        <v>1634.539353490362</v>
+        <v>1637.028034117401</v>
       </c>
       <c r="R24" t="n">
-        <v>1696.242807916275</v>
+        <v>1698.731488543314</v>
       </c>
       <c r="S24" t="n">
-        <v>1651.621777316009</v>
+        <v>1654.110457943048</v>
       </c>
       <c r="T24" t="n">
-        <v>1525.530222191662</v>
+        <v>1528.018902818701</v>
       </c>
       <c r="U24" t="n">
-        <v>1349.260385015543</v>
+        <v>1351.749065642582</v>
       </c>
       <c r="V24" t="n">
-        <v>1150.142867077543</v>
+        <v>1152.631547704581</v>
       </c>
       <c r="W24" t="n">
-        <v>964.8201128107366</v>
+        <v>967.3087934377752</v>
       </c>
       <c r="X24" t="n">
-        <v>809.9526770496166</v>
+        <v>812.4413576766551</v>
       </c>
       <c r="Y24" t="n">
-        <v>683.4668978288373</v>
+        <v>685.9555784558759</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1111.883532906315</v>
+        <v>1114.372213533353</v>
       </c>
       <c r="C25" t="n">
-        <v>939.3218213895397</v>
+        <v>941.8105020165782</v>
       </c>
       <c r="D25" t="n">
-        <v>773.4438285910624</v>
+        <v>775.9325092181009</v>
       </c>
       <c r="E25" t="n">
-        <v>603.6858248417996</v>
+        <v>606.1745054688381</v>
       </c>
       <c r="F25" t="n">
-        <v>426.9787708035558</v>
+        <v>429.4674514305943</v>
       </c>
       <c r="G25" t="n">
-        <v>262.2375904160742</v>
+        <v>264.7262710431128</v>
       </c>
       <c r="H25" t="n">
-        <v>129.8935297953902</v>
+        <v>132.3822104224287</v>
       </c>
       <c r="I25" t="n">
-        <v>66.7982432316382</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="J25" t="n">
-        <v>125.7039069338213</v>
+        <v>128.1925875608598</v>
       </c>
       <c r="K25" t="n">
-        <v>222.5040075013795</v>
+        <v>229.1684621954873</v>
       </c>
       <c r="L25" t="n">
-        <v>764.5846908876384</v>
+        <v>771.2491455817462</v>
       </c>
       <c r="M25" t="n">
-        <v>1354.672950407081</v>
+        <v>1361.337405101189</v>
       </c>
       <c r="N25" t="n">
-        <v>1924.430665368615</v>
+        <v>1931.095120062723</v>
       </c>
       <c r="O25" t="n">
-        <v>2461.865795942158</v>
+        <v>2468.530250636266</v>
       </c>
       <c r="P25" t="n">
-        <v>2910.141746090183</v>
+        <v>2916.806200784291</v>
       </c>
       <c r="Q25" t="n">
-        <v>2984.084791387908</v>
+        <v>2986.573472014947</v>
       </c>
       <c r="R25" t="n">
-        <v>3000.555884064675</v>
+        <v>3003.044564691714</v>
       </c>
       <c r="S25" t="n">
-        <v>2856.12934556891</v>
+        <v>2858.618026195948</v>
       </c>
       <c r="T25" t="n">
-        <v>2613.882121472316</v>
+        <v>2616.370802099355</v>
       </c>
       <c r="U25" t="n">
-        <v>2335.495489521059</v>
+        <v>2337.984170148098</v>
       </c>
       <c r="V25" t="n">
-        <v>2048.53998139149</v>
+        <v>2051.028662018528</v>
       </c>
       <c r="W25" t="n">
-        <v>1776.513576977781</v>
+        <v>1779.00225760482</v>
       </c>
       <c r="X25" t="n">
-        <v>1531.121822311194</v>
+        <v>1533.610502938232</v>
       </c>
       <c r="Y25" t="n">
-        <v>1303.702151625302</v>
+        <v>1306.19083225234</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1597.664660440748</v>
+        <v>1506.225519475236</v>
       </c>
       <c r="C26" t="n">
-        <v>1597.664660440748</v>
+        <v>1068.083046658659</v>
       </c>
       <c r="D26" t="n">
-        <v>1597.664660440748</v>
+        <v>632.1732618331034</v>
       </c>
       <c r="E26" t="n">
-        <v>1163.889915599043</v>
+        <v>198.3985169913986</v>
       </c>
       <c r="F26" t="n">
-        <v>736.0224860082506</v>
+        <v>198.3985169913986</v>
       </c>
       <c r="G26" t="n">
-        <v>336.5197946877278</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="H26" t="n">
-        <v>66.7982432316382</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="I26" t="n">
-        <v>137.9981934828188</v>
+        <v>140.4868741098573</v>
       </c>
       <c r="J26" t="n">
-        <v>295.644968726264</v>
+        <v>733.3883368062205</v>
       </c>
       <c r="K26" t="n">
-        <v>531.9166191054849</v>
+        <v>969.6599871854413</v>
       </c>
       <c r="L26" t="n">
-        <v>825.0324939693855</v>
+        <v>1262.775862049342</v>
       </c>
       <c r="M26" t="n">
-        <v>1151.180382138173</v>
+        <v>1588.923750218129</v>
       </c>
       <c r="N26" t="n">
-        <v>1482.60568411465</v>
+        <v>1920.349052194606</v>
       </c>
       <c r="O26" t="n">
-        <v>1795.561198655943</v>
+        <v>2233.304566735899</v>
       </c>
       <c r="P26" t="n">
-        <v>2622.189458647465</v>
+        <v>2500.404857915168</v>
       </c>
       <c r="Q26" t="n">
-        <v>3223.235577297769</v>
+        <v>3247.48483888483</v>
       </c>
       <c r="R26" t="n">
-        <v>3339.91216158191</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="S26" t="n">
-        <v>3299.445791796707</v>
+        <v>3423.879823148632</v>
       </c>
       <c r="T26" t="n">
-        <v>3087.674540265819</v>
+        <v>3423.879823148632</v>
       </c>
       <c r="U26" t="n">
-        <v>3087.674540265819</v>
+        <v>3164.809131670146</v>
       </c>
       <c r="V26" t="n">
-        <v>2725.057590199646</v>
+        <v>3164.809131670146</v>
       </c>
       <c r="W26" t="n">
-        <v>2443.106694346345</v>
+        <v>2759.953677081179</v>
       </c>
       <c r="X26" t="n">
-        <v>2023.964230925656</v>
+        <v>2340.81121366049</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.964230925656</v>
+        <v>1932.525089960143</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>562.1629967490742</v>
+        <v>564.6516773761127</v>
       </c>
       <c r="C27" t="n">
-        <v>455.7065355857165</v>
+        <v>458.195216212755</v>
       </c>
       <c r="D27" t="n">
-        <v>360.6162467322698</v>
+        <v>363.1049273593083</v>
       </c>
       <c r="E27" t="n">
-        <v>266.4958320592235</v>
+        <v>268.984512686262</v>
       </c>
       <c r="F27" t="n">
-        <v>183.1119936753851</v>
+        <v>185.6006743024236</v>
       </c>
       <c r="G27" t="n">
-        <v>98.74089326504195</v>
+        <v>101.2295738920805</v>
       </c>
       <c r="H27" t="n">
-        <v>66.7982432316382</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="I27" t="n">
-        <v>101.0149794031143</v>
+        <v>103.5036600301528</v>
       </c>
       <c r="J27" t="n">
-        <v>194.9083187495814</v>
+        <v>197.3969993766199</v>
       </c>
       <c r="K27" t="n">
-        <v>355.3869908037516</v>
+        <v>357.8756714307901</v>
       </c>
       <c r="L27" t="n">
-        <v>571.1703696787739</v>
+        <v>573.6590503058123</v>
       </c>
       <c r="M27" t="n">
-        <v>822.9793949814714</v>
+        <v>825.4680756085097</v>
       </c>
       <c r="N27" t="n">
-        <v>1081.453055902791</v>
+        <v>1083.94173652983</v>
       </c>
       <c r="O27" t="n">
-        <v>1317.905958717322</v>
+        <v>1320.39463934436</v>
       </c>
       <c r="P27" t="n">
-        <v>1507.680259282128</v>
+        <v>1510.168939909166</v>
       </c>
       <c r="Q27" t="n">
-        <v>1634.539353490362</v>
+        <v>1637.0280341174</v>
       </c>
       <c r="R27" t="n">
-        <v>1696.242807916275</v>
+        <v>1698.731488543314</v>
       </c>
       <c r="S27" t="n">
-        <v>1651.621777316009</v>
+        <v>1654.110457943048</v>
       </c>
       <c r="T27" t="n">
-        <v>1525.530222191662</v>
+        <v>1528.018902818701</v>
       </c>
       <c r="U27" t="n">
-        <v>1349.260385015543</v>
+        <v>1351.749065642582</v>
       </c>
       <c r="V27" t="n">
-        <v>1150.142867077543</v>
+        <v>1152.631547704581</v>
       </c>
       <c r="W27" t="n">
-        <v>964.8201128107366</v>
+        <v>967.3087934377752</v>
       </c>
       <c r="X27" t="n">
-        <v>809.9526770496166</v>
+        <v>812.4413576766551</v>
       </c>
       <c r="Y27" t="n">
-        <v>683.4668978288373</v>
+        <v>685.9555784558759</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1111.883532906315</v>
+        <v>1114.372213533353</v>
       </c>
       <c r="C28" t="n">
-        <v>939.3218213895397</v>
+        <v>941.8105020165782</v>
       </c>
       <c r="D28" t="n">
-        <v>773.4438285910624</v>
+        <v>775.9325092181009</v>
       </c>
       <c r="E28" t="n">
-        <v>603.6858248417996</v>
+        <v>606.1745054688381</v>
       </c>
       <c r="F28" t="n">
-        <v>426.9787708035558</v>
+        <v>429.4674514305943</v>
       </c>
       <c r="G28" t="n">
-        <v>262.2375904160742</v>
+        <v>264.7262710431128</v>
       </c>
       <c r="H28" t="n">
-        <v>129.8935297953902</v>
+        <v>132.3822104224287</v>
       </c>
       <c r="I28" t="n">
-        <v>66.7982432316382</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="J28" t="n">
-        <v>125.7039069338213</v>
+        <v>148.9009993733738</v>
       </c>
       <c r="K28" t="n">
-        <v>222.5040075013795</v>
+        <v>520.4595545120676</v>
       </c>
       <c r="L28" t="n">
-        <v>764.5846908876384</v>
+        <v>1062.540237898326</v>
       </c>
       <c r="M28" t="n">
-        <v>1354.672950407081</v>
+        <v>1193.144630236856</v>
       </c>
       <c r="N28" t="n">
-        <v>1924.430665368615</v>
+        <v>1762.90234519839</v>
       </c>
       <c r="O28" t="n">
-        <v>2461.865795942158</v>
+        <v>2300.337475771933</v>
       </c>
       <c r="P28" t="n">
-        <v>2910.141746090183</v>
+        <v>2748.613425919959</v>
       </c>
       <c r="Q28" t="n">
-        <v>2984.084791387908</v>
+        <v>2986.573472014947</v>
       </c>
       <c r="R28" t="n">
-        <v>3000.555884064675</v>
+        <v>3003.044564691714</v>
       </c>
       <c r="S28" t="n">
-        <v>2856.12934556891</v>
+        <v>2858.618026195948</v>
       </c>
       <c r="T28" t="n">
-        <v>2613.882121472316</v>
+        <v>2616.370802099355</v>
       </c>
       <c r="U28" t="n">
-        <v>2335.495489521059</v>
+        <v>2337.984170148098</v>
       </c>
       <c r="V28" t="n">
-        <v>2048.53998139149</v>
+        <v>2051.028662018528</v>
       </c>
       <c r="W28" t="n">
-        <v>1776.513576977781</v>
+        <v>1779.00225760482</v>
       </c>
       <c r="X28" t="n">
-        <v>1531.121822311194</v>
+        <v>1533.610502938232</v>
       </c>
       <c r="Y28" t="n">
-        <v>1303.702151625302</v>
+        <v>1306.19083225234</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1677.912443876683</v>
+        <v>1603.217402614954</v>
       </c>
       <c r="C29" t="n">
-        <v>1239.769971060107</v>
+        <v>1603.217402614954</v>
       </c>
       <c r="D29" t="n">
-        <v>803.8601862345513</v>
+        <v>1200.650649747263</v>
       </c>
       <c r="E29" t="n">
-        <v>803.8601862345513</v>
+        <v>766.8759049055585</v>
       </c>
       <c r="F29" t="n">
-        <v>375.992756643759</v>
+        <v>339.0084753147663</v>
       </c>
       <c r="G29" t="n">
-        <v>333.2145944439256</v>
+        <v>339.0084753147663</v>
       </c>
       <c r="H29" t="n">
-        <v>63.49304298783601</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="I29" t="n">
-        <v>134.6929932390166</v>
+        <v>140.4868741098573</v>
       </c>
       <c r="J29" t="n">
-        <v>292.3397684824619</v>
+        <v>298.1336493533025</v>
       </c>
       <c r="K29" t="n">
-        <v>808.0233835716639</v>
+        <v>1026.018151337045</v>
       </c>
       <c r="L29" t="n">
-        <v>1101.139258435564</v>
+        <v>1319.134026200945</v>
       </c>
       <c r="M29" t="n">
-        <v>1427.287146604352</v>
+        <v>1645.281914369732</v>
       </c>
       <c r="N29" t="n">
-        <v>1758.712448580829</v>
+        <v>1976.70721634621</v>
       </c>
       <c r="O29" t="n">
-        <v>2071.667963122122</v>
+        <v>2289.662730887503</v>
       </c>
       <c r="P29" t="n">
-        <v>2857.394370096592</v>
+        <v>3147.088413638627</v>
       </c>
       <c r="Q29" t="n">
-        <v>3057.97556510766</v>
+        <v>3347.669608649695</v>
       </c>
       <c r="R29" t="n">
-        <v>3174.6521493918</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="S29" t="n">
-        <v>3134.185779606597</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="T29" t="n">
-        <v>3134.185779606597</v>
+        <v>3464.346192933835</v>
       </c>
       <c r="U29" t="n">
-        <v>2875.115088128111</v>
+        <v>3205.275501455349</v>
       </c>
       <c r="V29" t="n">
-        <v>2512.498138061938</v>
+        <v>2842.658551389175</v>
       </c>
       <c r="W29" t="n">
-        <v>2512.498138061938</v>
+        <v>2437.803096800209</v>
       </c>
       <c r="X29" t="n">
-        <v>2512.498138061938</v>
+        <v>2437.803096800209</v>
       </c>
       <c r="Y29" t="n">
-        <v>2104.212014361591</v>
+        <v>2029.516973099862</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>558.8577965052721</v>
+        <v>564.6516773761127</v>
       </c>
       <c r="C30" t="n">
-        <v>452.4013353419143</v>
+        <v>458.195216212755</v>
       </c>
       <c r="D30" t="n">
-        <v>357.3110464884676</v>
+        <v>363.1049273593083</v>
       </c>
       <c r="E30" t="n">
-        <v>263.1906318154213</v>
+        <v>268.984512686262</v>
       </c>
       <c r="F30" t="n">
-        <v>179.8067934315829</v>
+        <v>185.6006743024236</v>
       </c>
       <c r="G30" t="n">
-        <v>95.43569302123976</v>
+        <v>101.2295738920805</v>
       </c>
       <c r="H30" t="n">
-        <v>63.49304298783601</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="I30" t="n">
-        <v>97.70977915931213</v>
+        <v>103.5036600301532</v>
       </c>
       <c r="J30" t="n">
-        <v>191.6031185057793</v>
+        <v>197.3969993766203</v>
       </c>
       <c r="K30" t="n">
-        <v>352.0817905599494</v>
+        <v>357.8756714307904</v>
       </c>
       <c r="L30" t="n">
-        <v>567.8651694349717</v>
+        <v>573.6590503058127</v>
       </c>
       <c r="M30" t="n">
-        <v>819.6741947376692</v>
+        <v>825.4680756085102</v>
       </c>
       <c r="N30" t="n">
-        <v>1078.147855658989</v>
+        <v>1083.94173652983</v>
       </c>
       <c r="O30" t="n">
-        <v>1314.60075847352</v>
+        <v>1320.39463934436</v>
       </c>
       <c r="P30" t="n">
-        <v>1504.375059038325</v>
+        <v>1510.168939909167</v>
       </c>
       <c r="Q30" t="n">
-        <v>1631.23415324656</v>
+        <v>1637.028034117401</v>
       </c>
       <c r="R30" t="n">
-        <v>1692.937607672473</v>
+        <v>1698.731488543314</v>
       </c>
       <c r="S30" t="n">
-        <v>1648.316577072207</v>
+        <v>1654.110457943048</v>
       </c>
       <c r="T30" t="n">
-        <v>1522.22502194786</v>
+        <v>1528.018902818701</v>
       </c>
       <c r="U30" t="n">
-        <v>1345.955184771741</v>
+        <v>1351.749065642582</v>
       </c>
       <c r="V30" t="n">
-        <v>1146.837666833741</v>
+        <v>1152.631547704581</v>
       </c>
       <c r="W30" t="n">
-        <v>961.5149125669345</v>
+        <v>967.3087934377752</v>
       </c>
       <c r="X30" t="n">
-        <v>806.6474768058144</v>
+        <v>812.4413576766551</v>
       </c>
       <c r="Y30" t="n">
-        <v>680.1616975850352</v>
+        <v>685.9555784558759</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1108.578332662513</v>
+        <v>1114.372213533353</v>
       </c>
       <c r="C31" t="n">
-        <v>936.0166211457375</v>
+        <v>941.8105020165782</v>
       </c>
       <c r="D31" t="n">
-        <v>770.1386283472602</v>
+        <v>775.9325092181009</v>
       </c>
       <c r="E31" t="n">
-        <v>600.3806245979974</v>
+        <v>606.1745054688381</v>
       </c>
       <c r="F31" t="n">
-        <v>423.6735705597537</v>
+        <v>429.4674514305943</v>
       </c>
       <c r="G31" t="n">
-        <v>258.9323901722721</v>
+        <v>264.7262710431128</v>
       </c>
       <c r="H31" t="n">
-        <v>126.588329551588</v>
+        <v>132.3822104224287</v>
       </c>
       <c r="I31" t="n">
-        <v>63.49304298783601</v>
+        <v>69.2869238586767</v>
       </c>
       <c r="J31" t="n">
-        <v>122.3987066900191</v>
+        <v>214.7722727255497</v>
       </c>
       <c r="K31" t="n">
-        <v>493.9572618287128</v>
+        <v>586.3308278642435</v>
       </c>
       <c r="L31" t="n">
-        <v>1036.037945214972</v>
+        <v>1128.411511250502</v>
       </c>
       <c r="M31" t="n">
-        <v>1626.126204734414</v>
+        <v>1259.015903589032</v>
       </c>
       <c r="N31" t="n">
-        <v>1757.108464327549</v>
+        <v>1828.773618550566</v>
       </c>
       <c r="O31" t="n">
-        <v>2294.543594901093</v>
+        <v>2366.208749124109</v>
       </c>
       <c r="P31" t="n">
-        <v>2742.819545049118</v>
+        <v>2814.484699272135</v>
       </c>
       <c r="Q31" t="n">
-        <v>2980.779591144105</v>
+        <v>2986.573472014947</v>
       </c>
       <c r="R31" t="n">
-        <v>2997.250683820873</v>
+        <v>3003.044564691714</v>
       </c>
       <c r="S31" t="n">
-        <v>2852.824145325108</v>
+        <v>2858.618026195948</v>
       </c>
       <c r="T31" t="n">
-        <v>2610.576921228514</v>
+        <v>2616.370802099355</v>
       </c>
       <c r="U31" t="n">
-        <v>2332.190289277257</v>
+        <v>2337.984170148098</v>
       </c>
       <c r="V31" t="n">
-        <v>2045.234781147687</v>
+        <v>2051.028662018528</v>
       </c>
       <c r="W31" t="n">
-        <v>1773.208376733979</v>
+        <v>1779.00225760482</v>
       </c>
       <c r="X31" t="n">
-        <v>1527.816622067392</v>
+        <v>1533.610502938232</v>
       </c>
       <c r="Y31" t="n">
-        <v>1300.3969513815</v>
+        <v>1306.19083225234</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1409.61567899128</v>
+        <v>1801.676155689504</v>
       </c>
       <c r="C32" t="n">
-        <v>971.4732061747036</v>
+        <v>1363.533682872927</v>
       </c>
       <c r="D32" t="n">
-        <v>761.0820240347178</v>
+        <v>927.6238980473715</v>
       </c>
       <c r="E32" t="n">
-        <v>761.0820240347178</v>
+        <v>493.8491532056668</v>
       </c>
       <c r="F32" t="n">
-        <v>333.2145944439256</v>
+        <v>65.98172361487451</v>
       </c>
       <c r="G32" t="n">
-        <v>333.2145944439256</v>
+        <v>65.98172361487451</v>
       </c>
       <c r="H32" t="n">
-        <v>63.49304298783601</v>
+        <v>65.98172361487451</v>
       </c>
       <c r="I32" t="n">
-        <v>134.6929932390166</v>
+        <v>137.1816738660551</v>
       </c>
       <c r="J32" t="n">
-        <v>727.5944559353798</v>
+        <v>294.8284491095004</v>
       </c>
       <c r="K32" t="n">
-        <v>963.8661063146005</v>
+        <v>735.4306800071391</v>
       </c>
       <c r="L32" t="n">
-        <v>1256.981981178501</v>
+        <v>1028.54655487104</v>
       </c>
       <c r="M32" t="n">
-        <v>1583.129869347288</v>
+        <v>1354.694443039827</v>
       </c>
       <c r="N32" t="n">
-        <v>1914.555171323766</v>
+        <v>1686.119745016304</v>
       </c>
       <c r="O32" t="n">
-        <v>2227.510685865058</v>
+        <v>1999.075259557597</v>
       </c>
       <c r="P32" t="n">
-        <v>2494.610977044327</v>
+        <v>2266.175550736866</v>
       </c>
       <c r="Q32" t="n">
-        <v>2888.821500354603</v>
+        <v>3013.255531706528</v>
       </c>
       <c r="R32" t="n">
-        <v>3174.6521493918</v>
+        <v>3299.086180743725</v>
       </c>
       <c r="S32" t="n">
-        <v>3134.185779606597</v>
+        <v>3299.086180743725</v>
       </c>
       <c r="T32" t="n">
-        <v>2922.41452807571</v>
+        <v>3087.314929212838</v>
       </c>
       <c r="U32" t="n">
-        <v>2663.343836597224</v>
+        <v>3087.314929212838</v>
       </c>
       <c r="V32" t="n">
-        <v>2663.343836597224</v>
+        <v>3087.314929212838</v>
       </c>
       <c r="W32" t="n">
-        <v>2663.343836597224</v>
+        <v>3055.404313295448</v>
       </c>
       <c r="X32" t="n">
-        <v>2244.201373176535</v>
+        <v>2636.261849874758</v>
       </c>
       <c r="Y32" t="n">
-        <v>1835.915249476188</v>
+        <v>2227.975726174412</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>558.8577965052721</v>
+        <v>561.3464771323105</v>
       </c>
       <c r="C33" t="n">
-        <v>452.4013353419143</v>
+        <v>454.8900159689528</v>
       </c>
       <c r="D33" t="n">
-        <v>357.3110464884676</v>
+        <v>359.7997271155061</v>
       </c>
       <c r="E33" t="n">
-        <v>263.1906318154213</v>
+        <v>265.6793124424598</v>
       </c>
       <c r="F33" t="n">
-        <v>179.8067934315829</v>
+        <v>182.2954740586214</v>
       </c>
       <c r="G33" t="n">
-        <v>95.43569302123976</v>
+        <v>97.92437364827826</v>
       </c>
       <c r="H33" t="n">
-        <v>63.49304298783601</v>
+        <v>65.98172361487451</v>
       </c>
       <c r="I33" t="n">
-        <v>97.70977915931213</v>
+        <v>100.1984597863507</v>
       </c>
       <c r="J33" t="n">
-        <v>191.6031185057793</v>
+        <v>194.0917991328178</v>
       </c>
       <c r="K33" t="n">
-        <v>352.0817905599494</v>
+        <v>354.570471186988</v>
       </c>
       <c r="L33" t="n">
-        <v>567.8651694349717</v>
+        <v>570.3538500620102</v>
       </c>
       <c r="M33" t="n">
-        <v>819.6741947376692</v>
+        <v>822.1628753647077</v>
       </c>
       <c r="N33" t="n">
-        <v>1078.147855658989</v>
+        <v>1080.636536286028</v>
       </c>
       <c r="O33" t="n">
-        <v>1314.60075847352</v>
+        <v>1317.089439100558</v>
       </c>
       <c r="P33" t="n">
-        <v>1504.375059038325</v>
+        <v>1506.863739665364</v>
       </c>
       <c r="Q33" t="n">
-        <v>1631.23415324656</v>
+        <v>1633.722833873599</v>
       </c>
       <c r="R33" t="n">
-        <v>1692.937607672473</v>
+        <v>1695.426288299511</v>
       </c>
       <c r="S33" t="n">
-        <v>1648.316577072207</v>
+        <v>1650.805257699246</v>
       </c>
       <c r="T33" t="n">
-        <v>1522.22502194786</v>
+        <v>1524.713702574898</v>
       </c>
       <c r="U33" t="n">
-        <v>1345.955184771741</v>
+        <v>1348.44386539878</v>
       </c>
       <c r="V33" t="n">
-        <v>1146.837666833741</v>
+        <v>1149.326347460779</v>
       </c>
       <c r="W33" t="n">
-        <v>961.5149125669345</v>
+        <v>964.0035931939728</v>
       </c>
       <c r="X33" t="n">
-        <v>806.6474768058144</v>
+        <v>809.1361574328529</v>
       </c>
       <c r="Y33" t="n">
-        <v>680.1616975850352</v>
+        <v>682.6503782120736</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1108.578332662513</v>
+        <v>1111.067013289551</v>
       </c>
       <c r="C34" t="n">
-        <v>936.0166211457375</v>
+        <v>938.5053017727759</v>
       </c>
       <c r="D34" t="n">
-        <v>770.1386283472602</v>
+        <v>772.6273089742986</v>
       </c>
       <c r="E34" t="n">
-        <v>600.3806245979974</v>
+        <v>602.8693052250359</v>
       </c>
       <c r="F34" t="n">
-        <v>423.6735705597537</v>
+        <v>426.1622511867921</v>
       </c>
       <c r="G34" t="n">
-        <v>258.9323901722721</v>
+        <v>261.4210707993105</v>
       </c>
       <c r="H34" t="n">
-        <v>126.588329551588</v>
+        <v>129.0770101786265</v>
       </c>
       <c r="I34" t="n">
-        <v>63.49304298783601</v>
+        <v>65.98172361487451</v>
       </c>
       <c r="J34" t="n">
-        <v>122.3987066900191</v>
+        <v>211.4670724817475</v>
       </c>
       <c r="K34" t="n">
-        <v>473.3916882282745</v>
+        <v>583.0256276204412</v>
       </c>
       <c r="L34" t="n">
-        <v>597.2624898465724</v>
+        <v>1125.1063110067</v>
       </c>
       <c r="M34" t="n">
-        <v>1187.350749366015</v>
+        <v>1255.71070334523</v>
       </c>
       <c r="N34" t="n">
-        <v>1757.108464327549</v>
+        <v>1825.468418306764</v>
       </c>
       <c r="O34" t="n">
-        <v>2294.543594901093</v>
+        <v>2297.032275528131</v>
       </c>
       <c r="P34" t="n">
-        <v>2742.819545049118</v>
+        <v>2745.308225676156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2980.779591144105</v>
+        <v>2983.268271771144</v>
       </c>
       <c r="R34" t="n">
-        <v>2997.250683820873</v>
+        <v>2999.739364447912</v>
       </c>
       <c r="S34" t="n">
-        <v>2852.824145325108</v>
+        <v>2855.312825952146</v>
       </c>
       <c r="T34" t="n">
-        <v>2610.576921228514</v>
+        <v>2613.065601855552</v>
       </c>
       <c r="U34" t="n">
-        <v>2332.190289277257</v>
+        <v>2334.678969904295</v>
       </c>
       <c r="V34" t="n">
-        <v>2045.234781147687</v>
+        <v>2047.723461774726</v>
       </c>
       <c r="W34" t="n">
-        <v>1773.208376733979</v>
+        <v>1775.697057361017</v>
       </c>
       <c r="X34" t="n">
-        <v>1527.816622067392</v>
+        <v>1530.30530269443</v>
       </c>
       <c r="Y34" t="n">
-        <v>1300.3969513815</v>
+        <v>1302.885632008538</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2013.98275358362</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>2013.98275358362</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>1578.072968758064</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895472</v>
@@ -6937,10 +6937,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L35" t="n">
         <v>805.4408022867016</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.98275358362</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X35" t="n">
-        <v>2013.98275358362</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y35" t="n">
-        <v>2013.98275358362</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
         <v>1614.947661807679</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.1897768536844</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C37" t="n">
-        <v>617.6280653369093</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D37" t="n">
-        <v>451.7500725384321</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E37" t="n">
-        <v>451.7500725384321</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
@@ -7098,22 +7098,22 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369939</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M37" t="n">
-        <v>910.9641928553085</v>
+        <v>1185.722647426444</v>
       </c>
       <c r="N37" t="n">
-        <v>1480.721907816843</v>
+        <v>1755.480362387978</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1650.558898871144</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.819820925151</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.428066258563</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.0083955726716</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>750.7028478467491</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>750.7028478467491</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>750.7028478467491</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895472</v>
@@ -7174,13 +7174,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2345.603839622925</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2345.603839622925</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2345.603839622925</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>1982.986889556752</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>1578.131434967785</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X38" t="n">
-        <v>1158.988971547096</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y38" t="n">
-        <v>750.7028478467491</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.0469809559636</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="C40" t="n">
-        <v>544.4852694391885</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D40" t="n">
-        <v>444.801022249451</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E40" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F40" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
         <v>110.3018381127067</v>
@@ -7335,19 +7335,19 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092371</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827552</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789086</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.320157362629</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540313</v>
@@ -7374,10 +7374,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1136.285270360843</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.8655996749508</v>
+        <v>743.0230756686125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1080.420058888312</v>
+        <v>651.8166204017315</v>
       </c>
       <c r="C41" t="n">
-        <v>642.2775860717356</v>
+        <v>651.8166204017315</v>
       </c>
       <c r="D41" t="n">
-        <v>206.3678012461801</v>
+        <v>651.8166204017315</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895472</v>
+        <v>651.8166204017315</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895472</v>
+        <v>651.8166204017315</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895472</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662533</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662533</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>1915.005753073566</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X41" t="n">
-        <v>1915.005753073566</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y41" t="n">
-        <v>1506.71962937322</v>
+        <v>1078.116190886639</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.5847871853875</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C43" t="n">
-        <v>743.0230756686125</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D43" t="n">
-        <v>577.1450828701352</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E43" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895472</v>
@@ -7572,19 +7572,19 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>601.5415720081295</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M43" t="n">
-        <v>1185.722647426444</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675981</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2303.795414797534</v>
       </c>
       <c r="T43" t="n">
-        <v>2360.327577447736</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U43" t="n">
-        <v>2081.940945496479</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.985437366909</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W43" t="n">
-        <v>1522.959032953201</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.567278286613</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y43" t="n">
-        <v>1107.403405904375</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.76150051161</v>
+        <v>1060.102744102078</v>
       </c>
       <c r="C44" t="n">
-        <v>882.6190276950331</v>
+        <v>621.9602712855017</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>621.9602712855017</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>621.9602712855017</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>621.9602712855017</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895472</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662533</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662533</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662533</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X44" t="n">
-        <v>1900.718744241844</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y44" t="n">
-        <v>1492.432620541497</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668988</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>915.5847871853875</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C46" t="n">
-        <v>743.0230756686125</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="D46" t="n">
-        <v>577.1450828701352</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E46" t="n">
-        <v>407.3870791208724</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
         <v>242.6458987333908</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>554.1085916646774</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>1138.289667082992</v>
       </c>
       <c r="N46" t="n">
-        <v>1842.060047552668</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498297</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7845,13 +7845,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.795160570962</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1107.403405904375</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y46" t="n">
-        <v>1107.403405904375</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
   </sheetData>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8616,19 +8616,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>240.3544725979809</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>323.2928365343467</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>141.468043217344</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M19" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>264.6463123855401</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>627.4283155271751</v>
       </c>
       <c r="L23" t="n">
-        <v>469.484782259035</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>500.2050080960053</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>465.4385967721955</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.217953603100227</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.217953603099431</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>565.1797664770238</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>404.5100238780165</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>101.1967371362261</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>20.91758768940809</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.217953603099886</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>282.2343077878598</v>
+        <v>496.5786379843651</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>523.8647634294966</v>
+        <v>596.2882743150053</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,10 +10278,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.518533120450002</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>103.3550520324816</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>206.3945257761796</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.5851801002104</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>256.7604858289871</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>357.3716928016217</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10758,13 +10758,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>59.72999935692042</v>
+        <v>303.1049632594843</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042861</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>444.9969971592897</v>
       </c>
       <c r="N43" t="n">
-        <v>228.9222706564246</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>229.6216911390743</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>45.75904403824984</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>234.5030615039094</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23272,10 +23272,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>46.78466617956593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.12557843752593</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>199.665513431424</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>31.9566950221602</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23563,7 +23563,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>254.5875093574913</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55.35491182066569</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>155.4043122387774</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>259.3029547140877</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735101</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.69224154201672</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100.5937471736738</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>41.97062431683698</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>267.3993280016195</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>404.5426078684333</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>43.09606860372278</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>69.63569724890644</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.71567093403854</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>331.6884576352081</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>267.6871872059229</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>121.675513148309</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>33.00960163828597</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>353.1572838294825</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24922,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>223.263416658714</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>369.2153902848606</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>307.6407695205315</v>
+        <v>251.1911469372252</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>111.3145178010427</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>75.52445320303798</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>305.3969917679812</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>25.48520564078811</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25450,16 +25450,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>65.5318081526524</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>78.7537383536467</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>271.8673601930346</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>63.96803218459729</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>87.01543208710757</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>56.68324032061653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>252.08216595047</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>93.52581780966477</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>119.0568436190432</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>214.3447913080186</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>505489.9688962686</v>
+        <v>484130.7854230574</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>305261.5285252799</v>
+        <v>305261.52852528</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>305261.52852528</v>
+        <v>305261.5285252799</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>305261.5285252799</v>
+        <v>305261.52852528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>425772.531325548</v>
+        <v>438583.5387003903</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>425772.531325548</v>
+        <v>438583.5387003901</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>408758.3173526336</v>
+        <v>438583.5387003901</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>408758.3173526337</v>
+        <v>421569.3247274758</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>305261.52852528</v>
+        <v>305261.5285252799</v>
       </c>
     </row>
     <row r="14">
@@ -26316,13 +26316,13 @@
         <v>431792.3221340781</v>
       </c>
       <c r="C2" t="n">
+        <v>431792.3221340781</v>
+      </c>
+      <c r="D2" t="n">
         <v>442321.5389095868</v>
       </c>
-      <c r="D2" t="n">
-        <v>442321.5389095869</v>
-      </c>
       <c r="E2" t="n">
-        <v>259540.9926463485</v>
+        <v>259540.9926463486</v>
       </c>
       <c r="F2" t="n">
         <v>259540.9926463485</v>
@@ -26331,19 +26331,19 @@
         <v>259540.9926463485</v>
       </c>
       <c r="H2" t="n">
-        <v>259540.9926463486</v>
+        <v>259540.9926463485</v>
       </c>
       <c r="I2" t="n">
-        <v>334119.0174871063</v>
+        <v>342047.0871573887</v>
       </c>
       <c r="J2" t="n">
-        <v>334119.0174871064</v>
+        <v>342047.0871573886</v>
       </c>
       <c r="K2" t="n">
-        <v>323589.8007115974</v>
+        <v>342047.0871573886</v>
       </c>
       <c r="L2" t="n">
-        <v>323589.8007115974</v>
+        <v>331517.8703818798</v>
       </c>
       <c r="M2" t="n">
         <v>259540.9926463485</v>
@@ -26352,7 +26352,7 @@
         <v>259540.9926463485</v>
       </c>
       <c r="O2" t="n">
-        <v>259540.9926463486</v>
+        <v>259540.9926463485</v>
       </c>
       <c r="P2" t="n">
         <v>259540.9926463485</v>
@@ -26368,10 +26368,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>13347.66637665675</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12833.67939665342</v>
       </c>
       <c r="E3" t="n">
         <v>538799.4500107511</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65123.02804938591</v>
+        <v>73395.43356216975</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86021.66922642828</v>
+        <v>78269.30463917195</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
+        <v>298730.7163118329</v>
+      </c>
+      <c r="D4" t="n">
         <v>302243.7051245434</v>
-      </c>
-      <c r="D4" t="n">
-        <v>302243.7051245433</v>
       </c>
       <c r="E4" t="n">
         <v>14728.7909942616</v>
@@ -26432,28 +26432,28 @@
         <v>14728.7909942616</v>
       </c>
       <c r="G4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426159</v>
       </c>
       <c r="H4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="I4" t="n">
-        <v>51760.35793216123</v>
+        <v>55697.02484322886</v>
       </c>
       <c r="J4" t="n">
-        <v>51760.35793216123</v>
+        <v>55697.02484322884</v>
       </c>
       <c r="K4" t="n">
-        <v>46532.09670295233</v>
+        <v>55697.02484322885</v>
       </c>
       <c r="L4" t="n">
-        <v>46532.09670295234</v>
+        <v>50468.76361401995</v>
       </c>
       <c r="M4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="N4" t="n">
-        <v>14728.79099426159</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="O4" t="n">
         <v>14728.7909942616</v>
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>36139.55218528966</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>36139.55218528966</v>
@@ -26481,25 +26481,25 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>60940.76688847724</v>
+        <v>62832.16416502651</v>
       </c>
       <c r="J5" t="n">
-        <v>60940.76688847724</v>
+        <v>62832.16416502651</v>
       </c>
       <c r="K5" t="n">
-        <v>58428.81470318759</v>
+        <v>62832.16416502651</v>
       </c>
       <c r="L5" t="n">
-        <v>58428.81470318759</v>
+        <v>60320.21197973685</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99434.00582224526</v>
+        <v>99402.09910474364</v>
       </c>
       <c r="C6" t="n">
-        <v>90590.61522309705</v>
+        <v>99402.0991047437</v>
       </c>
       <c r="D6" t="n">
-        <v>103938.2815997539</v>
+        <v>91104.60220310035</v>
       </c>
       <c r="E6" t="n">
-        <v>-340038.3295683021</v>
+        <v>-340592.210011524</v>
       </c>
       <c r="F6" t="n">
-        <v>198761.1204424491</v>
+        <v>198207.2399992271</v>
       </c>
       <c r="G6" t="n">
-        <v>198761.1204424491</v>
+        <v>198207.2399992272</v>
       </c>
       <c r="H6" t="n">
-        <v>198761.1204424492</v>
+        <v>198207.2399992272</v>
       </c>
       <c r="I6" t="n">
-        <v>156294.8646170819</v>
+        <v>149818.6026119569</v>
       </c>
       <c r="J6" t="n">
-        <v>221417.8926664679</v>
+        <v>223214.0361741266</v>
       </c>
       <c r="K6" t="n">
-        <v>218628.8893054575</v>
+        <v>223214.0361741265</v>
       </c>
       <c r="L6" t="n">
-        <v>218628.8893054575</v>
+        <v>220393.1260956148</v>
       </c>
       <c r="M6" t="n">
-        <v>112739.4512160209</v>
+        <v>119937.9353600553</v>
       </c>
       <c r="N6" t="n">
-        <v>198761.1204424491</v>
+        <v>198207.2399992272</v>
       </c>
       <c r="O6" t="n">
-        <v>198761.1204424492</v>
+        <v>198207.2399992271</v>
       </c>
       <c r="P6" t="n">
-        <v>198761.1204424491</v>
+        <v>198207.2399992271</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
@@ -26792,13 +26792,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
@@ -26810,16 +26810,16 @@
         <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>834.9780403954775</v>
+        <v>866.0865482334588</v>
       </c>
       <c r="J4" t="n">
-        <v>834.9780403954775</v>
+        <v>866.0865482334588</v>
       </c>
       <c r="K4" t="n">
-        <v>793.6630373479501</v>
+        <v>866.0865482334588</v>
       </c>
       <c r="L4" t="n">
-        <v>793.6630373479501</v>
+        <v>824.7715451859314</v>
       </c>
       <c r="M4" t="n">
         <v>590.081894361934</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>244.8961460335435</v>
+        <v>276.0046538715249</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.1857483283907</v>
+        <v>314.0772404904093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27709,10 +27709,10 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,13 +27748,13 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>92.48660254844231</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
@@ -27794,7 +27794,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>72.58673813049116</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>202.1056489098019</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>57.74913128065019</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>21.5058801285734</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6494827990271</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28025,7 +28025,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28064,16 +28064,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>202.1056489098019</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>254.1195287669911</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -31998,7 +31998,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062837</v>
@@ -32016,7 +32016,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.607267687947</v>
@@ -32025,10 +32025,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.150095092452091</v>
@@ -32071,19 +32071,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108054</v>
@@ -32092,13 +32092,13 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -32107,7 +32107,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356904</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
@@ -32177,19 +32177,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32253,7 +32253,7 @@
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.607267687947</v>
@@ -32262,10 +32262,10 @@
         <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.150095092452091</v>
@@ -32308,19 +32308,19 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108054</v>
@@ -32332,10 +32332,10 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -32344,7 +32344,7 @@
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356904</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916788</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562336</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33736,7 +33736,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
@@ -33988,7 +33988,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
@@ -34444,7 +34444,7 @@
         <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562335</v>
@@ -34465,7 +34465,7 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002368</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P9" t="n">
+        <v>41.31500304752735</v>
+      </c>
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>13.31876740878121</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35412,7 +35412,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766673</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916794</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>359.3099083027907</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,13 +35646,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816031</v>
@@ -35661,16 +35661,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
         <v>162.099668741586</v>
@@ -35734,19 +35734,19 @@
         <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35807,28 +35807,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>448.4148583710113</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917241</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>266.5900650540085</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M19" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -36135,13 +36135,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879467</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36214,16 +36214,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
@@ -36293,7 +36293,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>383.6017480903499</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36302,7 +36302,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,28 +36354,28 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>866.0865482334588</v>
       </c>
       <c r="L23" t="n">
-        <v>765.5614235357023</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>834.9780403954774</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>735.2368706906491</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916813</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36518,13 +36518,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>101.9958329642701</v>
       </c>
       <c r="L25" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,13 +36533,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68994474517604</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>834.9780403954774</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>607.1172915659636</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>219.0518727767721</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562336</v>
@@ -36682,13 +36682,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36697,7 +36697,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233668</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624556</v>
+        <v>80.41825809565367</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
@@ -36773,7 +36773,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68994474517604</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027014</v>
@@ -36831,10 +36831,10 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
-        <v>520.8925404941435</v>
+        <v>735.2368706906487</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766673</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>793.6630373479502</v>
+        <v>866.0865482334589</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916813</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562336</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893358</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>132.3053127203384</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
@@ -37010,7 +37010,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>173.8270431745577</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027014</v>
@@ -37068,10 +37068,10 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>598.8903663599629</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>445.0527584824634</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766673</v>
@@ -37083,13 +37083,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>398.1924477881576</v>
+        <v>754.6262434036989</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916788</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562336</v>
@@ -37171,7 +37171,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>354.538365190157</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561043</v>
+        <v>476.3271285064316</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485105</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125706</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766668</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37384,13 +37384,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K36" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37405,7 +37405,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002372</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233622</v>
@@ -37466,7 +37466,7 @@
         <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366645</v>
@@ -37475,16 +37475,16 @@
         <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>178.6854350617302</v>
+        <v>422.0603989642941</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027014</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125706</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
@@ -37627,7 +37627,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37636,7 +37636,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -37703,22 +37703,22 @@
         <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409507</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M40" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>139.4164512162874</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37940,22 +37940,22 @@
         <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>576.9206257840668</v>
       </c>
       <c r="N43" t="n">
-        <v>357.709050256313</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562335</v>
@@ -38101,19 +38101,19 @@
         <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002367</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>354.7437129757388</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N46" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>164.7144797430597</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027013</v>
